--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44923</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44943</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43543</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44021</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44056</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>44110</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24336,7 +24336,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27008,7 +27008,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27702,7 +27702,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27759,7 +27759,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28106,7 +28106,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28448,7 +28448,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29603,7 +29603,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29717,7 +29717,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30748,7 +30748,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30805,7 +30805,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30976,7 +30976,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31033,7 +31033,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31090,7 +31090,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31147,7 +31147,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31908,7 +31908,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31970,7 +31970,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32089,7 +32089,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32151,7 +32151,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32208,7 +32208,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32265,7 +32265,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32322,7 +32322,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32498,7 +32498,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32612,7 +32612,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32669,7 +32669,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32783,7 +32783,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33762,7 +33762,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33819,7 +33819,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33876,7 +33876,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34114,7 +34114,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34657,7 +34657,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34719,7 +34719,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44923</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44943</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43543</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44021</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44056</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>44110</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24336,7 +24336,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27008,7 +27008,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27702,7 +27702,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27759,7 +27759,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28106,7 +28106,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28448,7 +28448,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29603,7 +29603,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29717,7 +29717,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30748,7 +30748,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30805,7 +30805,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30976,7 +30976,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31033,7 +31033,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31090,7 +31090,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31147,7 +31147,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31908,7 +31908,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31970,7 +31970,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32089,7 +32089,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32151,7 +32151,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32208,7 +32208,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32265,7 +32265,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32322,7 +32322,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32498,7 +32498,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32612,7 +32612,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32669,7 +32669,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32783,7 +32783,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33762,7 +33762,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33819,7 +33819,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33876,7 +33876,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34114,7 +34114,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34657,7 +34657,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34719,7 +34719,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44923</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44943</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43543</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44021</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44056</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>44110</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24336,7 +24336,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27008,7 +27008,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27702,7 +27702,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27759,7 +27759,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28106,7 +28106,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28448,7 +28448,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29603,7 +29603,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29717,7 +29717,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30748,7 +30748,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30805,7 +30805,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30976,7 +30976,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31033,7 +31033,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31090,7 +31090,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31147,7 +31147,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31908,7 +31908,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31970,7 +31970,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32089,7 +32089,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32151,7 +32151,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32208,7 +32208,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32265,7 +32265,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32322,7 +32322,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32498,7 +32498,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32612,7 +32612,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32669,7 +32669,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32783,7 +32783,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33762,7 +33762,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33819,7 +33819,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33876,7 +33876,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34114,7 +34114,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34657,7 +34657,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34719,7 +34719,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44133</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>44923</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44943</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43543</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44021</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44056</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>44110</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3772,7 +3772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7448,7 +7448,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7505,7 +7505,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7619,7 +7619,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7733,7 +7733,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7790,7 +7790,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8417,7 +8417,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9245,7 +9245,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9416,7 +9416,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9701,7 +9701,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9815,7 +9815,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9872,7 +9872,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10043,7 +10043,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10328,7 +10328,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11570,7 +11570,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11632,7 +11632,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12936,7 +12936,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12998,7 +12998,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13179,7 +13179,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14691,7 +14691,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14976,7 +14976,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15033,7 +15033,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15090,7 +15090,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16597,7 +16597,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17762,7 +17762,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17933,7 +17933,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18228,7 +18228,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18285,7 +18285,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18399,7 +18399,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18989,7 +18989,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19046,7 +19046,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19837,7 +19837,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21002,7 +21002,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21064,7 +21064,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21431,7 +21431,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21488,7 +21488,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21545,7 +21545,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21607,7 +21607,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21669,7 +21669,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21783,7 +21783,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21845,7 +21845,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21902,7 +21902,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22249,7 +22249,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22363,7 +22363,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22420,7 +22420,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22534,7 +22534,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22938,7 +22938,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22995,7 +22995,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23114,7 +23114,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23694,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23813,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23994,7 +23994,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24222,7 +24222,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24279,7 +24279,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24336,7 +24336,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24393,7 +24393,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24450,7 +24450,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24507,7 +24507,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24564,7 +24564,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24621,7 +24621,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24735,7 +24735,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24849,7 +24849,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24906,7 +24906,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24963,7 +24963,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25134,7 +25134,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25191,7 +25191,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25248,7 +25248,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25305,7 +25305,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25362,7 +25362,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25419,7 +25419,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25476,7 +25476,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25704,7 +25704,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25761,7 +25761,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25818,7 +25818,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25994,7 +25994,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26113,7 +26113,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26175,7 +26175,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26542,7 +26542,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27008,7 +27008,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27065,7 +27065,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27122,7 +27122,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27179,7 +27179,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27236,7 +27236,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27293,7 +27293,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27350,7 +27350,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27407,7 +27407,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27464,7 +27464,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27521,7 +27521,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27583,7 +27583,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27640,7 +27640,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27702,7 +27702,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27759,7 +27759,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27816,7 +27816,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27873,7 +27873,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27930,7 +27930,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27987,7 +27987,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28044,7 +28044,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28106,7 +28106,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28163,7 +28163,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28220,7 +28220,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28334,7 +28334,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28448,7 +28448,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28505,7 +28505,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28567,7 +28567,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28805,7 +28805,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28862,7 +28862,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28919,7 +28919,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28976,7 +28976,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29090,7 +29090,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29147,7 +29147,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29489,7 +29489,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29603,7 +29603,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29717,7 +29717,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30002,7 +30002,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30116,7 +30116,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30173,7 +30173,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30230,7 +30230,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30287,7 +30287,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30748,7 +30748,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30805,7 +30805,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30919,7 +30919,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30976,7 +30976,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31033,7 +31033,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31090,7 +31090,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31147,7 +31147,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31209,7 +31209,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31908,7 +31908,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31970,7 +31970,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32089,7 +32089,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32151,7 +32151,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32208,7 +32208,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32265,7 +32265,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32322,7 +32322,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32498,7 +32498,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32555,7 +32555,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32612,7 +32612,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32669,7 +32669,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32783,7 +32783,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32845,7 +32845,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33249,7 +33249,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33306,7 +33306,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33363,7 +33363,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33420,7 +33420,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33477,7 +33477,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33534,7 +33534,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33591,7 +33591,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33648,7 +33648,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33705,7 +33705,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33762,7 +33762,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33819,7 +33819,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33876,7 +33876,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33933,7 +33933,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33995,7 +33995,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34114,7 +34114,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34476,7 +34476,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34538,7 +34538,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34595,7 +34595,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34657,7 +34657,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34719,7 +34719,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34838,7 +34838,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34895,7 +34895,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34952,7 +34952,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35009,7 +35009,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 56050-2020</t>
+          <t>A 51999-2020</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44133</v>
+        <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2378,13 +2378,8 @@
           <t>FALUN</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>19</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2393,10 +2388,10 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2411,569 +2406,575 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
+          <t>Goliatmusseron
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 51999-2020.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 51999-2020.png")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 51999-2020.docx")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 51999-2020.docx")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 51999-2020.docx")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 51999-2020.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 56050-2020</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44133</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>FALUN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>19</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Lunglav
 Korallblylav</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 56050-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 56050-2020.png")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 56050-2020.docx")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 56050-2020.docx")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 56050-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 56050-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
         <is>
           <t>A 62396-2022</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>44923</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>FALUN</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="C23" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>FALUN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>2.8</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 62396-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 62396-2022.png")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 62396-2022.docx")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 62396-2022.docx")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 62396-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 62396-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 2556-2023</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>44943</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>FALUN</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
+      <c r="C24" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>FALUN</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>0.9</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P24" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Trolldruvemätare
 Svart trolldruva</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 2556-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 2556-2023.png")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 2556-2023.docx")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 2556-2023.docx")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 2556-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 2556-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 15768-2019</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>43543</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>FALUN</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="C25" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>FALUN</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>3.7</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q25" t="n">
         <v>1</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Stare</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 15768-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 15768-2019.png")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 15768-2019.docx")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 15768-2019.docx")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 15768-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 15768-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 33248-2020</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>44021</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>FALUN</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="C26" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>FALUN</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G26" t="n">
         <v>13.8</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Garnlav</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 33248-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 33248-2020.png")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 33248-2020.docx")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 33248-2020.docx")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 33248-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 33248-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 37713-2020</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>44056</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>FALUN</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="C27" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>FALUN</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G27" t="n">
         <v>12</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>1</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Garnlav</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 37713-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 37713-2020.png")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 37713-2020.docx")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 37713-2020.docx")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 37713-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 37713-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 51999-2020</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>44110</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>FALUN</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 51999-2020.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 51999-2020.png")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 51999-2020.docx")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 51999-2020.docx")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 51999-2020.docx")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 51999-2020.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
@@ -2984,7 +2985,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3078,7 +3079,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3163,7 +3164,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3253,7 +3254,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3338,7 +3339,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3423,7 +3424,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3508,7 +3509,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3602,7 +3603,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3687,7 +3688,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3772,7 +3773,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3866,7 +3867,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3923,7 +3924,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3980,7 +3981,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4037,7 +4038,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4094,7 +4095,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4151,7 +4152,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4208,7 +4209,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4265,7 +4266,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4322,7 +4323,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4384,7 +4385,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4446,7 +4447,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4508,7 +4509,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4570,7 +4571,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4627,7 +4628,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4684,7 +4685,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4741,7 +4742,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4798,7 +4799,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4860,7 +4861,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4937,7 +4938,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4994,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5051,7 +5052,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5108,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5165,7 +5166,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5222,7 +5223,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5284,7 +5285,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5346,7 +5347,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5408,7 +5409,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5465,7 +5466,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5522,7 +5523,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5599,7 +5600,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5656,7 +5657,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5713,7 +5714,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5770,7 +5771,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5827,7 +5828,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5884,7 +5885,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5941,7 +5942,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5998,7 +5999,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6055,7 +6056,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6112,7 +6113,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6169,7 +6170,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6226,7 +6227,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6283,7 +6284,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6340,7 +6341,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6397,7 +6398,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6454,7 +6455,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6511,7 +6512,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6568,7 +6569,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6625,7 +6626,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6682,7 +6683,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6744,7 +6745,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6806,7 +6807,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6868,7 +6869,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6925,7 +6926,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6982,7 +6983,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7044,7 +7045,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7101,7 +7102,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7158,7 +7159,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7215,7 +7216,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7277,7 +7278,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7334,7 +7335,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7391,7 +7392,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7448,7 +7449,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7505,7 +7506,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7562,7 +7563,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7619,7 +7620,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7676,7 +7677,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7733,7 +7734,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7790,7 +7791,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7847,7 +7848,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7904,7 +7905,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7961,7 +7962,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8018,7 +8019,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8075,7 +8076,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8132,7 +8133,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8189,7 +8190,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8246,7 +8247,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8303,7 +8304,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8360,7 +8361,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8417,7 +8418,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8479,7 +8480,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8536,7 +8537,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8593,7 +8594,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8650,7 +8651,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8712,7 +8713,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8774,7 +8775,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8836,7 +8837,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8898,7 +8899,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8955,7 +8956,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9012,7 +9013,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9069,7 +9070,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9126,7 +9127,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9188,7 +9189,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9245,7 +9246,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9302,7 +9303,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9359,7 +9360,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9416,7 +9417,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9473,7 +9474,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9530,7 +9531,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9587,7 +9588,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9644,7 +9645,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9701,7 +9702,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9758,7 +9759,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9815,7 +9816,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9872,7 +9873,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9929,7 +9930,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9986,7 +9987,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10043,7 +10044,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10100,7 +10101,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10157,7 +10158,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10214,7 +10215,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10271,7 +10272,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10328,7 +10329,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10385,7 +10386,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10442,7 +10443,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10499,7 +10500,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10556,7 +10557,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10613,7 +10614,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10670,7 +10671,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10727,7 +10728,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10784,7 +10785,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10846,7 +10847,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10908,7 +10909,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10970,7 +10971,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11032,7 +11033,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11094,7 +11095,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11151,7 +11152,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11208,7 +11209,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11265,7 +11266,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11322,7 +11323,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11384,7 +11385,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11446,7 +11447,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11508,7 +11509,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11570,7 +11571,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11632,7 +11633,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11689,7 +11690,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11746,7 +11747,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11803,7 +11804,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11860,7 +11861,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11917,7 +11918,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11974,7 +11975,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12036,7 +12037,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12093,7 +12094,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12150,7 +12151,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12207,7 +12208,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12269,7 +12270,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12331,7 +12332,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12388,7 +12389,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12450,7 +12451,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12512,7 +12513,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12569,7 +12570,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12631,7 +12632,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12688,7 +12689,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12750,7 +12751,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12812,7 +12813,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12874,7 +12875,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12936,7 +12937,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12998,7 +12999,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13060,7 +13061,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13117,7 +13118,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13179,7 +13180,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13241,7 +13242,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13298,7 +13299,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13355,7 +13356,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13412,7 +13413,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13474,7 +13475,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13536,7 +13537,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13598,7 +13599,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13655,7 +13656,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13712,7 +13713,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13769,7 +13770,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13831,7 +13832,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13888,7 +13889,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13945,7 +13946,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14007,7 +14008,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14064,7 +14065,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14121,7 +14122,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14178,7 +14179,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14235,7 +14236,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14292,7 +14293,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14349,7 +14350,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14406,7 +14407,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14463,7 +14464,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14520,7 +14521,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14577,7 +14578,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14634,7 +14635,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14691,7 +14692,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14748,7 +14749,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14805,7 +14806,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14862,7 +14863,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14919,7 +14920,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14976,7 +14977,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15033,7 +15034,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15090,7 +15091,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15152,7 +15153,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15209,7 +15210,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15266,7 +15267,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15323,7 +15324,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15380,7 +15381,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15437,7 +15438,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15494,7 +15495,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15551,7 +15552,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15608,7 +15609,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15665,7 +15666,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15722,7 +15723,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15779,7 +15780,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15841,7 +15842,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15898,7 +15899,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15955,7 +15956,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16017,7 +16018,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16074,7 +16075,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16131,7 +16132,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16188,7 +16189,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16245,7 +16246,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16302,7 +16303,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16359,7 +16360,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16421,7 +16422,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16478,7 +16479,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16535,7 +16536,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16597,7 +16598,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16659,7 +16660,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16716,7 +16717,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16778,7 +16779,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16835,7 +16836,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16897,7 +16898,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16954,7 +16955,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17011,7 +17012,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17073,7 +17074,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17135,7 +17136,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17192,7 +17193,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17249,7 +17250,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17306,7 +17307,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17363,7 +17364,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17420,7 +17421,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17477,7 +17478,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17534,7 +17535,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17591,7 +17592,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17648,7 +17649,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17705,7 +17706,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17762,7 +17763,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17819,7 +17820,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17876,7 +17877,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17933,7 +17934,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17990,7 +17991,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18052,7 +18053,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18109,7 +18110,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18166,7 +18167,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18228,7 +18229,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18285,7 +18286,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18342,7 +18343,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18399,7 +18400,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18461,7 +18462,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18518,7 +18519,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18575,7 +18576,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18632,7 +18633,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18689,7 +18690,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18751,7 +18752,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18808,7 +18809,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18870,7 +18871,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18932,7 +18933,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18989,7 +18990,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19046,7 +19047,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19103,7 +19104,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19160,7 +19161,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19217,7 +19218,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19279,7 +19280,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19341,7 +19342,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19398,7 +19399,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19455,7 +19456,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19517,7 +19518,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19579,7 +19580,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19661,7 +19662,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19718,7 +19719,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19780,7 +19781,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19837,7 +19838,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19899,7 +19900,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19961,7 +19962,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20023,7 +20024,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20080,7 +20081,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20137,7 +20138,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20194,7 +20195,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20251,7 +20252,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20308,7 +20309,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20365,7 +20366,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20422,7 +20423,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20479,7 +20480,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20536,7 +20537,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20593,7 +20594,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20650,7 +20651,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20707,7 +20708,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20764,7 +20765,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20821,7 +20822,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20883,7 +20884,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20940,7 +20941,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21002,7 +21003,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21064,7 +21065,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21146,7 +21147,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21203,7 +21204,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21260,7 +21261,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21317,7 +21318,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21374,7 +21375,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21431,7 +21432,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21488,7 +21489,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21545,7 +21546,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21607,7 +21608,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21669,7 +21670,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21726,7 +21727,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21783,7 +21784,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21845,7 +21846,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21902,7 +21903,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21959,7 +21960,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22021,7 +22022,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22078,7 +22079,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22135,7 +22136,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22192,7 +22193,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22249,7 +22250,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22306,7 +22307,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22363,7 +22364,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22420,7 +22421,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22477,7 +22478,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22534,7 +22535,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22591,7 +22592,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22648,7 +22649,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22705,7 +22706,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22762,7 +22763,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22819,7 +22820,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22876,7 +22877,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22938,7 +22939,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22995,7 +22996,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23057,7 +23058,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23114,7 +23115,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23171,7 +23172,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23233,7 +23234,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23290,7 +23291,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23347,7 +23348,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23404,7 +23405,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23461,7 +23462,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23518,7 +23519,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23575,7 +23576,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23632,7 +23633,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23694,7 +23695,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23751,7 +23752,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23813,7 +23814,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23875,7 +23876,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23937,7 +23938,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23994,7 +23995,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24051,7 +24052,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24108,7 +24109,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24165,7 +24166,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24222,7 +24223,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24279,7 +24280,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24336,7 +24337,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24393,7 +24394,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24450,7 +24451,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24507,7 +24508,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24564,7 +24565,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24621,7 +24622,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24678,7 +24679,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24735,7 +24736,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24792,7 +24793,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24849,7 +24850,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24906,7 +24907,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24963,7 +24964,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25020,7 +25021,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25077,7 +25078,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25134,7 +25135,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25191,7 +25192,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25248,7 +25249,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25305,7 +25306,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25362,7 +25363,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25419,7 +25420,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25476,7 +25477,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25533,7 +25534,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25590,7 +25591,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25647,7 +25648,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25704,7 +25705,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25761,7 +25762,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25818,7 +25819,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25875,7 +25876,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25937,7 +25938,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25994,7 +25995,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26051,7 +26052,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26113,7 +26114,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26175,7 +26176,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26237,7 +26238,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26299,7 +26300,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26361,7 +26362,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26423,7 +26424,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26480,7 +26481,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26542,7 +26543,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26604,7 +26605,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26661,7 +26662,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26718,7 +26719,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26775,7 +26776,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26832,7 +26833,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26889,7 +26890,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26946,7 +26947,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27008,7 +27009,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27065,7 +27066,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27122,7 +27123,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27179,7 +27180,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27236,7 +27237,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27293,7 +27294,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27350,7 +27351,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27407,7 +27408,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27464,7 +27465,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27521,7 +27522,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27583,7 +27584,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27640,7 +27641,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27702,7 +27703,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27759,7 +27760,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27816,7 +27817,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27873,7 +27874,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27930,7 +27931,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27987,7 +27988,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28044,7 +28045,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28106,7 +28107,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28163,7 +28164,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28220,7 +28221,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28277,7 +28278,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28334,7 +28335,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28391,7 +28392,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28448,7 +28449,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28505,7 +28506,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28567,7 +28568,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28624,7 +28625,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28686,7 +28687,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28748,7 +28749,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28805,7 +28806,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28862,7 +28863,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28919,7 +28920,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28976,7 +28977,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29033,7 +29034,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29090,7 +29091,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29147,7 +29148,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29204,7 +29205,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29261,7 +29262,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29318,7 +29319,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29375,7 +29376,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29432,7 +29433,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29489,7 +29490,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29546,7 +29547,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29603,7 +29604,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29660,7 +29661,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29717,7 +29718,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29774,7 +29775,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29831,7 +29832,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29888,7 +29889,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29945,7 +29946,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30002,7 +30003,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30059,7 +30060,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30116,7 +30117,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30173,7 +30174,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30230,7 +30231,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30287,7 +30288,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30349,7 +30350,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30406,7 +30407,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30463,7 +30464,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30520,7 +30521,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30577,7 +30578,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30634,7 +30635,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30691,7 +30692,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30748,7 +30749,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30805,7 +30806,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30862,7 +30863,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30919,7 +30920,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30976,7 +30977,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31033,7 +31034,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31090,7 +31091,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31147,7 +31148,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31209,7 +31210,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31266,7 +31267,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31328,7 +31329,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31385,7 +31386,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31442,7 +31443,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31499,7 +31500,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31556,7 +31557,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31613,7 +31614,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31675,7 +31676,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31732,7 +31733,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31789,7 +31790,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31846,7 +31847,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31908,7 +31909,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31970,7 +31971,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32032,7 +32033,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32089,7 +32090,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32151,7 +32152,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32208,7 +32209,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32265,7 +32266,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32322,7 +32323,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32379,7 +32380,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32436,7 +32437,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32498,7 +32499,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32555,7 +32556,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32612,7 +32613,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32669,7 +32670,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32726,7 +32727,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32783,7 +32784,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32845,7 +32846,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32907,7 +32908,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32964,7 +32965,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33021,7 +33022,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33078,7 +33079,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33135,7 +33136,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33192,7 +33193,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33249,7 +33250,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33306,7 +33307,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33363,7 +33364,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33420,7 +33421,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33477,7 +33478,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33534,7 +33535,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33591,7 +33592,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33648,7 +33649,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33705,7 +33706,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33762,7 +33763,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33819,7 +33820,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33876,7 +33877,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33933,7 +33934,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33995,7 +33996,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34057,7 +34058,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34114,7 +34115,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34176,7 +34177,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34238,7 +34239,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34300,7 +34301,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34357,7 +34358,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34414,7 +34415,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34476,7 +34477,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34538,7 +34539,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34595,7 +34596,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34657,7 +34658,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34719,7 +34720,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34781,7 +34782,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34838,7 +34839,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34895,7 +34896,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34952,7 +34953,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35009,7 +35010,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30464,7 +30464,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33820,7 +33820,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30464,7 +30464,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33820,7 +33820,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30464,7 +30464,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33820,7 +33820,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30464,7 +30464,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33820,7 +33820,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -650,27 +650,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 49753-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 49753-2019.xlsx", "A 49753-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 49753-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 49753-2019.png", "A 49753-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 49753-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 49753-2019.docx", "A 49753-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 49753-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 49753-2019.docx", "A 49753-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 49753-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 49753-2019.docx", "A 49753-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 49753-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 49753-2019.docx", "A 49753-2019")</f>
         <v/>
       </c>
     </row>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -752,31 +752,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 944-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 944-2023.xlsx", "A 944-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 944-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 944-2023.png", "A 944-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 944-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 944-2023.png", "A 944-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 944-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 944-2023.docx", "A 944-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 944-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 944-2023.docx", "A 944-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 944-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 944-2023.docx", "A 944-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 944-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 944-2023.docx", "A 944-2023")</f>
         <v/>
       </c>
     </row>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,27 +853,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 50080-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 50080-2021.xlsx", "A 50080-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 50080-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 50080-2021.png", "A 50080-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 50080-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 50080-2021.docx", "A 50080-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 50080-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 50080-2021.docx", "A 50080-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 50080-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 50080-2021.docx", "A 50080-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 50080-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 50080-2021.docx", "A 50080-2021")</f>
         <v/>
       </c>
     </row>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,31 +950,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 15915-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 15915-2022.xlsx", "A 15915-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 15915-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 15915-2022.png", "A 15915-2022")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 15915-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 15915-2022.png", "A 15915-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 15915-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 15915-2022.docx", "A 15915-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 15915-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 15915-2022.docx", "A 15915-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 15915-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 15915-2022.docx", "A 15915-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 15915-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 15915-2022.docx", "A 15915-2022")</f>
         <v/>
       </c>
     </row>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,27 +1044,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 39135-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 39135-2022.xlsx", "A 39135-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 39135-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 39135-2022.png", "A 39135-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 39135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 39135-2022.docx", "A 39135-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 39135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 39135-2022.docx", "A 39135-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 39135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 39135-2022.docx", "A 39135-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 39135-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 39135-2022.docx", "A 39135-2022")</f>
         <v/>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,27 +1138,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 3870-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 3870-2019.xlsx", "A 3870-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 3870-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 3870-2019.png", "A 3870-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 3870-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 3870-2019.docx", "A 3870-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 3870-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 3870-2019.docx", "A 3870-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 3870-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 3870-2019.docx", "A 3870-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 3870-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 3870-2019.docx", "A 3870-2019")</f>
         <v/>
       </c>
     </row>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,27 +1232,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 7993-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 7993-2019.xlsx", "A 7993-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 7993-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 7993-2019.png", "A 7993-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 7993-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 7993-2019.docx", "A 7993-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 7993-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 7993-2019.docx", "A 7993-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 7993-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 7993-2019.docx", "A 7993-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 7993-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 7993-2019.docx", "A 7993-2019")</f>
         <v/>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1326,31 +1326,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 49908-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 49908-2020.xlsx", "A 49908-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 49908-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 49908-2020.png", "A 49908-2020")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 49908-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 49908-2020.png", "A 49908-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 49908-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 49908-2020.docx", "A 49908-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 49908-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 49908-2020.docx", "A 49908-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 49908-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 49908-2020.docx", "A 49908-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 49908-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 49908-2020.docx", "A 49908-2020")</f>
         <v/>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,27 +1424,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 7244-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 7244-2022.xlsx", "A 7244-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 7244-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 7244-2022.png", "A 7244-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 7244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 7244-2022.docx", "A 7244-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 7244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 7244-2022.docx", "A 7244-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 7244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 7244-2022.docx", "A 7244-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 7244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 7244-2022.docx", "A 7244-2022")</f>
         <v/>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,31 +1518,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 31622-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 31622-2023.xlsx", "A 31622-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 31622-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 31622-2023.png", "A 31622-2023")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 31622-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 31622-2023.png", "A 31622-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 31622-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 31622-2023.docx", "A 31622-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 31622-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 31622-2023.docx", "A 31622-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 31622-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 31622-2023.docx", "A 31622-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 31622-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 31622-2023.docx", "A 31622-2023")</f>
         <v/>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1610,27 +1610,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 38847-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 38847-2022.xlsx", "A 38847-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 38847-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 38847-2022.png", "A 38847-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 38847-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 38847-2022.docx", "A 38847-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 38847-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 38847-2022.docx", "A 38847-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 38847-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 38847-2022.docx", "A 38847-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 38847-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 38847-2022.docx", "A 38847-2022")</f>
         <v/>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1697,31 +1697,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 26353-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 26353-2019.xlsx", "A 26353-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 26353-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 26353-2019.png", "A 26353-2019")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 26353-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 26353-2019.png", "A 26353-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 26353-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 26353-2019.docx", "A 26353-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 26353-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 26353-2019.docx", "A 26353-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 26353-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 26353-2019.docx", "A 26353-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 26353-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 26353-2019.docx", "A 26353-2019")</f>
         <v/>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1793,27 +1793,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 40241-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 40241-2020.xlsx", "A 40241-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 40241-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 40241-2020.png", "A 40241-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 40241-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 40241-2020.docx", "A 40241-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 40241-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 40241-2020.docx", "A 40241-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 40241-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 40241-2020.docx", "A 40241-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 40241-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 40241-2020.docx", "A 40241-2020")</f>
         <v/>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,27 +1885,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 51961-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 51961-2022.xlsx", "A 51961-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 51961-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 51961-2022.png", "A 51961-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 51961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 51961-2022.docx", "A 51961-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 51961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 51961-2022.docx", "A 51961-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 51961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 51961-2022.docx", "A 51961-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 51961-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 51961-2022.docx", "A 51961-2022")</f>
         <v/>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1972,27 +1972,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 62482-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 62482-2022.xlsx", "A 62482-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 62482-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 62482-2022.png", "A 62482-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 62482-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 62482-2022.docx", "A 62482-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 62482-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 62482-2022.docx", "A 62482-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 62482-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 62482-2022.docx", "A 62482-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 62482-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 62482-2022.docx", "A 62482-2022")</f>
         <v/>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2059,27 +2059,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 16311-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 16311-2023.xlsx", "A 16311-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 16311-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 16311-2023.png", "A 16311-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 16311-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 16311-2023.docx", "A 16311-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 16311-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 16311-2023.docx", "A 16311-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 16311-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 16311-2023.docx", "A 16311-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 16311-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 16311-2023.docx", "A 16311-2023")</f>
         <v/>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2146,31 +2146,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 17137-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 17137-2023.xlsx", "A 17137-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 17137-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 17137-2023.png", "A 17137-2023")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 17137-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 17137-2023.png", "A 17137-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 17137-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 17137-2023.docx", "A 17137-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 17137-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 17137-2023.docx", "A 17137-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 17137-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 17137-2023.docx", "A 17137-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 17137-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 17137-2023.docx", "A 17137-2023")</f>
         <v/>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2241,27 +2241,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 40160-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 40160-2020.xlsx", "A 40160-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 40160-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 40160-2020.png", "A 40160-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 40160-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 40160-2020.docx", "A 40160-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 40160-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 40160-2020.docx", "A 40160-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 40160-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 40160-2020.docx", "A 40160-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 40160-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 40160-2020.docx", "A 40160-2020")</f>
         <v/>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,27 +2332,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 45940-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 45940-2020.xlsx", "A 45940-2020")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 45940-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 45940-2020.png", "A 45940-2020")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 45940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 45940-2020.docx", "A 45940-2020")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 45940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 45940-2020.docx", "A 45940-2020")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 45940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 45940-2020.docx", "A 45940-2020")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 45940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 45940-2020.docx", "A 45940-2020")</f>
         <v/>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,27 +2418,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 51999-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 51999-2020.xlsx", "A 51999-2020")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 51999-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 51999-2020.png", "A 51999-2020")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 51999-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 51999-2020.docx", "A 51999-2020")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 51999-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 51999-2020.docx", "A 51999-2020")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 51999-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 51999-2020.docx", "A 51999-2020")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 51999-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 51999-2020.docx", "A 51999-2020")</f>
         <v/>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2509,27 +2509,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 56050-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 56050-2020.xlsx", "A 56050-2020")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 56050-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 56050-2020.png", "A 56050-2020")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 56050-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 56050-2020.docx", "A 56050-2020")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 56050-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 56050-2020.docx", "A 56050-2020")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 56050-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 56050-2020.docx", "A 56050-2020")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 56050-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 56050-2020.docx", "A 56050-2020")</f>
         <v/>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2600,27 +2600,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 62396-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 62396-2022.xlsx", "A 62396-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 62396-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 62396-2022.png", "A 62396-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 62396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 62396-2022.docx", "A 62396-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 62396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 62396-2022.docx", "A 62396-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 62396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 62396-2022.docx", "A 62396-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 62396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 62396-2022.docx", "A 62396-2022")</f>
         <v/>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2686,27 +2686,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 2556-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 2556-2023.xlsx", "A 2556-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 2556-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 2556-2023.png", "A 2556-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 2556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 2556-2023.docx", "A 2556-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 2556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 2556-2023.docx", "A 2556-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 2556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 2556-2023.docx", "A 2556-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 2556-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 2556-2023.docx", "A 2556-2023")</f>
         <v/>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2771,27 +2771,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 15768-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 15768-2019.xlsx", "A 15768-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 15768-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 15768-2019.png", "A 15768-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 15768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 15768-2019.docx", "A 15768-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 15768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 15768-2019.docx", "A 15768-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 15768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 15768-2019.docx", "A 15768-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 15768-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 15768-2019.docx", "A 15768-2019")</f>
         <v/>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2861,27 +2861,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 33248-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 33248-2020.xlsx", "A 33248-2020")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 33248-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 33248-2020.png", "A 33248-2020")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 33248-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 33248-2020.docx", "A 33248-2020")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 33248-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 33248-2020.docx", "A 33248-2020")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 33248-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 33248-2020.docx", "A 33248-2020")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 33248-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 33248-2020.docx", "A 33248-2020")</f>
         <v/>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2951,27 +2951,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 37713-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 37713-2020.xlsx", "A 37713-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 37713-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 37713-2020.png", "A 37713-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 37713-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 37713-2020.docx", "A 37713-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 37713-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 37713-2020.docx", "A 37713-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 37713-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 37713-2020.docx", "A 37713-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 37713-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 37713-2020.docx", "A 37713-2020")</f>
         <v/>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3041,31 +3041,31 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 51342-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 51342-2020.xlsx", "A 51342-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 51342-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 51342-2020.png", "A 51342-2020")</f>
         <v/>
       </c>
       <c r="U28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 51342-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 51342-2020.png", "A 51342-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 51342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 51342-2020.docx", "A 51342-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 51342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 51342-2020.docx", "A 51342-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 51342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 51342-2020.docx", "A 51342-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 51342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 51342-2020.docx", "A 51342-2020")</f>
         <v/>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3130,27 +3130,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 10384-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 10384-2021.xlsx", "A 10384-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 10384-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 10384-2021.png", "A 10384-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 10384-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 10384-2021.docx", "A 10384-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 10384-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 10384-2021.docx", "A 10384-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 10384-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 10384-2021.docx", "A 10384-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 10384-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 10384-2021.docx", "A 10384-2021")</f>
         <v/>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,27 +3220,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 19267-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 19267-2021.xlsx", "A 19267-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 19267-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 19267-2021.png", "A 19267-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 19267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 19267-2021.docx", "A 19267-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 19267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 19267-2021.docx", "A 19267-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 19267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 19267-2021.docx", "A 19267-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 19267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 19267-2021.docx", "A 19267-2021")</f>
         <v/>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3305,27 +3305,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 17199-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 17199-2023.xlsx", "A 17199-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 17199-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 17199-2023.png", "A 17199-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 17199-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 17199-2023.docx", "A 17199-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 17199-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 17199-2023.docx", "A 17199-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 17199-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 17199-2023.docx", "A 17199-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 17199-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 17199-2023.docx", "A 17199-2023")</f>
         <v/>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3390,27 +3390,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 17743-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 17743-2023.xlsx", "A 17743-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 17743-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 17743-2023.png", "A 17743-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 17743-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 17743-2023.docx", "A 17743-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 17743-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 17743-2023.docx", "A 17743-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 17743-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 17743-2023.docx", "A 17743-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 17743-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 17743-2023.docx", "A 17743-2023")</f>
         <v/>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3475,27 +3475,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 18067-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 18067-2023.xlsx", "A 18067-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 18067-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 18067-2023.png", "A 18067-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 18067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 18067-2023.docx", "A 18067-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 18067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 18067-2023.docx", "A 18067-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 18067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 18067-2023.docx", "A 18067-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 18067-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 18067-2023.docx", "A 18067-2023")</f>
         <v/>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3565,31 +3565,31 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 20979-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 20979-2023.xlsx", "A 20979-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 20979-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 20979-2023.png", "A 20979-2023")</f>
         <v/>
       </c>
       <c r="U34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 20979-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 20979-2023.png", "A 20979-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 20979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 20979-2023.docx", "A 20979-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 20979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 20979-2023.docx", "A 20979-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 20979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 20979-2023.docx", "A 20979-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 20979-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 20979-2023.docx", "A 20979-2023")</f>
         <v/>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3654,27 +3654,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 22069-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 22069-2023.xlsx", "A 22069-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 22069-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 22069-2023.png", "A 22069-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 22069-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 22069-2023.docx", "A 22069-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 22069-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 22069-2023.docx", "A 22069-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 22069-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 22069-2023.docx", "A 22069-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 22069-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 22069-2023.docx", "A 22069-2023")</f>
         <v/>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3739,27 +3739,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 26586-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 26586-2023.xlsx", "A 26586-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 26586-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 26586-2023.png", "A 26586-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 26586-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 26586-2023.docx", "A 26586-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 26586-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 26586-2023.docx", "A 26586-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 26586-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 26586-2023.docx", "A 26586-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 26586-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 26586-2023.docx", "A 26586-2023")</f>
         <v/>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3829,31 +3829,31 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 31620-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/artfynd/A 31620-2023.xlsx", "A 31620-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 31620-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/kartor/A 31620-2023.png", "A 31620-2023")</f>
         <v/>
       </c>
       <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 31620-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 31620-2023.png", "A 31620-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 31620-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 31620-2023.docx", "A 31620-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 31620-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 31620-2023.docx", "A 31620-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 31620-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 31620-2023.docx", "A 31620-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 31620-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 31620-2023.docx", "A 31620-2023")</f>
         <v/>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4908,23 +4908,23 @@
       </c>
       <c r="R55" s="2" t="inlineStr"/>
       <c r="U55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 58811-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 58811-2018.png", "A 58811-2018")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 58811-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 58811-2018.docx", "A 58811-2018")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 58811-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 58811-2018.docx", "A 58811-2018")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 58811-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 58811-2018.docx", "A 58811-2018")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 58811-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 58811-2018.docx", "A 58811-2018")</f>
         <v/>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5570,23 +5570,23 @@
       </c>
       <c r="R66" s="2" t="inlineStr"/>
       <c r="U66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 66339-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 66339-2018.png", "A 66339-2018")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 66339-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 66339-2018.docx", "A 66339-2018")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 66339-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 66339-2018.docx", "A 66339-2018")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 66339-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 66339-2018.docx", "A 66339-2018")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 66339-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 66339-2018.docx", "A 66339-2018")</f>
         <v/>
       </c>
     </row>
@@ -5600,7 +5600,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19632,23 +19632,23 @@
       </c>
       <c r="R307" s="2" t="inlineStr"/>
       <c r="U307">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 64564-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 64564-2020.png", "A 64564-2020")</f>
         <v/>
       </c>
       <c r="V307">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 64564-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 64564-2020.docx", "A 64564-2020")</f>
         <v/>
       </c>
       <c r="W307">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 64564-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 64564-2020.docx", "A 64564-2020")</f>
         <v/>
       </c>
       <c r="X307">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 64564-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 64564-2020.docx", "A 64564-2020")</f>
         <v/>
       </c>
       <c r="Y307">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 64564-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 64564-2020.docx", "A 64564-2020")</f>
         <v/>
       </c>
     </row>
@@ -19662,7 +19662,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21117,23 +21117,23 @@
       </c>
       <c r="R332" s="2" t="inlineStr"/>
       <c r="U332">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 23505-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/knärot/A 23505-2021.png", "A 23505-2021")</f>
         <v/>
       </c>
       <c r="V332">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 23505-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomål/A 23505-2021.docx", "A 23505-2021")</f>
         <v/>
       </c>
       <c r="W332">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 23505-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/klagomålsmail/A 23505-2021.docx", "A 23505-2021")</f>
         <v/>
       </c>
       <c r="X332">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 23505-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsyn/A 23505-2021.docx", "A 23505-2021")</f>
         <v/>
       </c>
       <c r="Y332">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 23505-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALUN/tillsynsmail/A 23505-2021.docx", "A 23505-2021")</f>
         <v/>
       </c>
     </row>
@@ -21147,7 +21147,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30464,7 +30464,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33820,7 +33820,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30464,7 +30464,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33820,7 +33820,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30464,7 +30464,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33820,7 +33820,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44817</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         <v>43482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>43501</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>44109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>44606</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>45117</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>44816</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2275,7 +2275,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>43314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>43321</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>43333</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>43334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43356</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>43369</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43378</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43385</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43389</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43390</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43392</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43404</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43410</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4938,7 +4938,7 @@
         <v>43411</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5052,7 +5052,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>43419</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43423</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43425</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43428</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43433</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43451</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>43479</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>43481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>43482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>43488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>43490</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43493</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43494</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43501</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7335,7 +7335,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43502</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43507</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43510</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43517</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43521</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43522</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43525</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43529</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43532</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43536</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43537</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43542</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43543</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43551</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43552</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43558</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8480,7 +8480,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43560</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43571</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43579</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         <v>43591</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9246,7 +9246,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9303,7 +9303,7 @@
         <v>43605</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43606</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43608</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43612</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43613</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43615</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>43619</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43627</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43634</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43636</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43640</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43641</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43642</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>43663</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>43668</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>43670</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43672</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10971,7 +10971,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43676</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         <v>43683</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         <v>43689</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         <v>43690</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43710</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>43713</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43720</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43726</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43727</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43742</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12094,7 +12094,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43752</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>43759</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12389,7 +12389,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>43762</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>43766</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>43768</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43769</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>43773</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12937,7 +12937,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43774</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43775</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>43780</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>43783</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>43784</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43796</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43801</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>43816</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43818</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43819</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43822</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>43846</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>43854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>43857</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>43865</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>43868</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>43886</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>43888</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>43889</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>43895</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>43899</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>43907</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>43909</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>43912</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>43914</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>43919</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>43921</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>43937</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>43945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>43948</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>43966</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15723,7 +15723,7 @@
         <v>43969</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15780,7 +15780,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>43971</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>43976</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>43977</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16018,7 +16018,7 @@
         <v>43979</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43986</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>43990</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43991</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16360,7 +16360,7 @@
         <v>43994</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43997</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>43998</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>44006</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16717,7 +16717,7 @@
         <v>44007</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>44014</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16836,7 +16836,7 @@
         <v>44018</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16898,7 +16898,7 @@
         <v>44019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>44021</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
         <v>44029</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>44039</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         <v>44060</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         <v>44061</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         <v>44066</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>44067</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         <v>44068</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         <v>44069</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44077</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         <v>44078</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         <v>44090</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44091</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44095</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>44096</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>44098</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>44103</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>44106</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18229,7 +18229,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44114</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>44117</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44125</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18519,7 +18519,7 @@
         <v>44126</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18576,7 +18576,7 @@
         <v>44131</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44141</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>44143</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18809,7 +18809,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44144</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44147</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44148</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44161</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44162</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>44166</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44169</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>44175</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>44176</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19781,7 +19781,7 @@
         <v>44179</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19838,7 +19838,7 @@
         <v>44183</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>44200</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>44203</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>44218</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>44224</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>44228</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>44241</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44242</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>44256</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>44263</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>44265</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44300</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44308</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20884,7 +20884,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20941,7 +20941,7 @@
         <v>44309</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21003,7 +21003,7 @@
         <v>44314</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21065,7 +21065,7 @@
         <v>44334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21204,7 +21204,7 @@
         <v>44348</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>44349</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>44355</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>44357</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44358</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21489,7 +21489,7 @@
         <v>44362</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21546,7 +21546,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>44363</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>44365</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>44368</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21784,7 +21784,7 @@
         <v>44376</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>44382</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21903,7 +21903,7 @@
         <v>44383</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21960,7 +21960,7 @@
         <v>44384</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>44389</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>44397</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22193,7 +22193,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22250,7 +22250,7 @@
         <v>44398</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22307,7 +22307,7 @@
         <v>44407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22421,7 +22421,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22478,7 +22478,7 @@
         <v>44409</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22535,7 +22535,7 @@
         <v>44412</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22592,7 +22592,7 @@
         <v>44417</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44418</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         <v>44419</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22763,7 +22763,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44421</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44424</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44431</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44439</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>44447</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44459</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44466</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44468</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44470</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44475</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44477</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44491</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44497</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44502</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23876,7 +23876,7 @@
         <v>44509</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>44511</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>44517</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44529</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>44530</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>44532</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>44558</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44564</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24394,7 +24394,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24451,7 +24451,7 @@
         <v>44566</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44571</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24565,7 +24565,7 @@
         <v>44581</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44583</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
         <v>44586</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44636</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>44644</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>44648</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25477,7 +25477,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25705,7 +25705,7 @@
         <v>44658</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25819,7 +25819,7 @@
         <v>44662</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25876,7 +25876,7 @@
         <v>44664</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25938,7 +25938,7 @@
         <v>44680</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>44697</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>44698</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26176,7 +26176,7 @@
         <v>44701</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44704</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44714</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44725</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44739</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26605,7 +26605,7 @@
         <v>44751</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>44755</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26719,7 +26719,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26776,7 +26776,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         <v>44775</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>44789</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>44792</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27180,7 +27180,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27237,7 +27237,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27294,7 +27294,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27351,7 +27351,7 @@
         <v>44797</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27408,7 +27408,7 @@
         <v>44798</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27465,7 +27465,7 @@
         <v>44802</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27522,7 +27522,7 @@
         <v>44804</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44806</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44809</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44813</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>44824</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>44826</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>44827</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>44830</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>44831</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>44834</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>44851</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>44852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44860</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>44866</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28568,7 +28568,7 @@
         <v>44872</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28625,7 +28625,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28687,7 +28687,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>44873</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>44874</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>44880</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>44882</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>44887</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>44889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>44893</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44903</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29433,7 +29433,7 @@
         <v>44909</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29490,7 +29490,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29547,7 +29547,7 @@
         <v>44910</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29604,7 +29604,7 @@
         <v>44911</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29661,7 +29661,7 @@
         <v>44916</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29718,7 +29718,7 @@
         <v>44931</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29775,7 +29775,7 @@
         <v>44935</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29832,7 +29832,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29889,7 +29889,7 @@
         <v>44937</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>44945</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44949</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>44951</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>44960</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>44963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30350,7 +30350,7 @@
         <v>44964</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30407,7 +30407,7 @@
         <v>44965</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30464,7 +30464,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30521,7 +30521,7 @@
         <v>44972</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44973</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>44987</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44988</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30806,7 +30806,7 @@
         <v>44994</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30863,7 +30863,7 @@
         <v>45001</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30920,7 +30920,7 @@
         <v>45009</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30977,7 +30977,7 @@
         <v>45020</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31034,7 +31034,7 @@
         <v>45021</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45027</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45028</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
         <v>45034</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31386,7 +31386,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31443,7 +31443,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31500,7 +31500,7 @@
         <v>45040</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31557,7 +31557,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45042</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31676,7 +31676,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45049</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45050</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31909,7 +31909,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31971,7 +31971,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32209,7 +32209,7 @@
         <v>45054</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32266,7 +32266,7 @@
         <v>45062</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32323,7 +32323,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32380,7 +32380,7 @@
         <v>45068</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32437,7 +32437,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>45069</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45072</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45075</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32846,7 +32846,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>45076</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45077</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45078</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45090</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45093</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45096</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45097</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>45099</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45103</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33820,7 +33820,7 @@
         <v>45104</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45105</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>45107</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         <v>45112</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45113</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45119</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45134</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45138</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45142</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45146</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45148</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34839,7 +34839,7 @@
         <v>45154</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45159</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45160</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45167</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y573"/>
+  <dimension ref="A1:Y574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -1041,6 +1041,7 @@
 Violettgrå tagellav
 Bronshjon
 Dropptaggsvamp
+Gullgröppa
 Vågbandad barkbock</t>
         </is>
       </c>
@@ -1079,7 +1080,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1170,7 @@
         <v>43482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1263,7 +1264,7 @@
         <v>43501</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1357,7 +1358,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1455,7 +1456,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1549,7 +1550,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1647,7 +1648,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1738,7 +1739,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1830,7 +1831,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1922,7 +1923,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2009,7 +2010,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2096,7 +2097,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2187,7 +2188,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2278,7 +2279,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2369,7 +2370,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2455,7 +2456,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2546,7 +2547,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2637,7 +2638,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2723,7 +2724,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2809,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2898,7 +2899,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2988,7 +2989,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3082,7 +3083,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3167,7 +3168,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3257,7 +3258,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3342,7 +3343,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3427,7 +3428,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3512,7 +3513,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3606,7 +3607,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3691,7 +3692,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3776,7 +3777,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3870,7 +3871,7 @@
         <v>45190</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3960,7 +3961,7 @@
         <v>43314</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4017,7 +4018,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4074,7 +4075,7 @@
         <v>43333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4131,7 +4132,7 @@
         <v>43334</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4188,7 +4189,7 @@
         <v>43356</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4245,7 +4246,7 @@
         <v>43360</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4302,7 +4303,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4359,7 +4360,7 @@
         <v>43369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4416,7 +4417,7 @@
         <v>43378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4478,7 +4479,7 @@
         <v>43385</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4540,7 +4541,7 @@
         <v>43389</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4602,7 +4603,7 @@
         <v>43389</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4664,7 +4665,7 @@
         <v>43390</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4721,7 +4722,7 @@
         <v>43392</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4778,7 +4779,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4835,7 +4836,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4892,7 +4893,7 @@
         <v>43404</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4954,7 +4955,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5031,7 +5032,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5088,7 +5089,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5145,7 +5146,7 @@
         <v>43413</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5202,7 +5203,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5259,7 +5260,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5316,7 +5317,7 @@
         <v>43419</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5378,7 +5379,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5440,7 +5441,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5502,7 +5503,7 @@
         <v>43423</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5559,7 +5560,7 @@
         <v>43425</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5616,7 +5617,7 @@
         <v>43428</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5693,7 +5694,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5750,7 +5751,7 @@
         <v>43433</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5807,7 +5808,7 @@
         <v>43445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5864,7 +5865,7 @@
         <v>43446</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5921,7 +5922,7 @@
         <v>43446</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5978,7 +5979,7 @@
         <v>43451</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6035,7 +6036,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6092,7 +6093,7 @@
         <v>43453</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6149,7 +6150,7 @@
         <v>43454</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6206,7 +6207,7 @@
         <v>43454</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6263,7 +6264,7 @@
         <v>43467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6320,7 +6321,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6377,7 +6378,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6434,7 +6435,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6491,7 +6492,7 @@
         <v>43468</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6548,7 +6549,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6605,7 +6606,7 @@
         <v>43479</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6662,7 +6663,7 @@
         <v>43481</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6719,7 +6720,7 @@
         <v>43481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6776,7 +6777,7 @@
         <v>43482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6838,7 +6839,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6900,7 +6901,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6962,7 +6963,7 @@
         <v>43482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7019,7 +7020,7 @@
         <v>43488</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7076,7 +7077,7 @@
         <v>43490</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7138,7 +7139,7 @@
         <v>43493</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7195,7 +7196,7 @@
         <v>43494</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7252,7 +7253,7 @@
         <v>43494</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7309,7 +7310,7 @@
         <v>43501</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7371,7 +7372,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7428,7 +7429,7 @@
         <v>43501</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7485,7 +7486,7 @@
         <v>43502</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7542,7 +7543,7 @@
         <v>43507</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7599,7 +7600,7 @@
         <v>43510</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7656,7 +7657,7 @@
         <v>43517</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7713,7 +7714,7 @@
         <v>43521</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7770,7 +7771,7 @@
         <v>43522</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7827,7 +7828,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7884,7 +7885,7 @@
         <v>43525</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7941,7 +7942,7 @@
         <v>43529</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7998,7 +7999,7 @@
         <v>43532</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8055,7 +8056,7 @@
         <v>43532</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8112,7 +8113,7 @@
         <v>43536</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8169,7 +8170,7 @@
         <v>43537</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8226,7 +8227,7 @@
         <v>43542</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8283,7 +8284,7 @@
         <v>43543</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8340,7 +8341,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8397,7 +8398,7 @@
         <v>43551</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8454,7 +8455,7 @@
         <v>43552</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8511,7 +8512,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8573,7 +8574,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8630,7 +8631,7 @@
         <v>43558</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8687,7 +8688,7 @@
         <v>43560</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8744,7 +8745,7 @@
         <v>43571</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8806,7 +8807,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8868,7 +8869,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8930,7 +8931,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8992,7 +8993,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9049,7 +9050,7 @@
         <v>43579</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9106,7 +9107,7 @@
         <v>43584</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9163,7 +9164,7 @@
         <v>43584</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9220,7 +9221,7 @@
         <v>43587</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9282,7 +9283,7 @@
         <v>43591</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9339,7 +9340,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9396,7 +9397,7 @@
         <v>43605</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9453,7 +9454,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9510,7 +9511,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9567,7 +9568,7 @@
         <v>43606</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9624,7 +9625,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9681,7 +9682,7 @@
         <v>43608</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9738,7 +9739,7 @@
         <v>43612</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9795,7 +9796,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9852,7 +9853,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9909,7 +9910,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9966,7 +9967,7 @@
         <v>43613</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10023,7 +10024,7 @@
         <v>43615</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10080,7 +10081,7 @@
         <v>43619</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10137,7 +10138,7 @@
         <v>43619</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10194,7 +10195,7 @@
         <v>43627</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10251,7 +10252,7 @@
         <v>43629</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10308,7 +10309,7 @@
         <v>43634</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10365,7 +10366,7 @@
         <v>43636</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10422,7 +10423,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10479,7 +10480,7 @@
         <v>43640</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10536,7 +10537,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10593,7 +10594,7 @@
         <v>43641</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10650,7 +10651,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10707,7 +10708,7 @@
         <v>43642</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10764,7 +10765,7 @@
         <v>43642</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10821,7 +10822,7 @@
         <v>43663</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10878,7 +10879,7 @@
         <v>43668</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10940,7 +10941,7 @@
         <v>43670</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11002,7 +11003,7 @@
         <v>43672</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11064,7 +11065,7 @@
         <v>43672</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11126,7 +11127,7 @@
         <v>43676</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11188,7 +11189,7 @@
         <v>43683</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11245,7 +11246,7 @@
         <v>43689</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11302,7 +11303,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11359,7 +11360,7 @@
         <v>43689</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11416,7 +11417,7 @@
         <v>43690</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11478,7 +11479,7 @@
         <v>43710</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11540,7 +11541,7 @@
         <v>43713</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11602,7 +11603,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11664,7 +11665,7 @@
         <v>43713</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11726,7 +11727,7 @@
         <v>43714</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11783,7 +11784,7 @@
         <v>43720</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11840,7 +11841,7 @@
         <v>43720</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11897,7 +11898,7 @@
         <v>43726</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11954,7 +11955,7 @@
         <v>43727</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12011,7 +12012,7 @@
         <v>43727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12068,7 +12069,7 @@
         <v>43742</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12130,7 +12131,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12187,7 +12188,7 @@
         <v>43742</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12244,7 +12245,7 @@
         <v>43752</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12301,7 +12302,7 @@
         <v>43759</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12363,7 +12364,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12426,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12483,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12544,7 +12545,7 @@
         <v>43759</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12606,7 +12607,7 @@
         <v>43762</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12663,7 +12664,7 @@
         <v>43766</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12725,7 +12726,7 @@
         <v>43766</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12782,7 +12783,7 @@
         <v>43768</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12844,7 +12845,7 @@
         <v>43769</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12906,7 +12907,7 @@
         <v>43773</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12968,7 +12969,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13030,7 +13031,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13092,7 +13093,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13154,7 +13155,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13211,7 +13212,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13273,7 +13274,7 @@
         <v>43773</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13335,7 +13336,7 @@
         <v>43774</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13392,7 +13393,7 @@
         <v>43775</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13449,7 +13450,7 @@
         <v>43775</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13506,7 +13507,7 @@
         <v>43777</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13568,7 +13569,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13630,7 +13631,7 @@
         <v>43780</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13692,7 +13693,7 @@
         <v>43783</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13749,7 +13750,7 @@
         <v>43784</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13806,7 +13807,7 @@
         <v>43796</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13863,7 +13864,7 @@
         <v>43801</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13925,7 +13926,7 @@
         <v>43815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13982,7 +13983,7 @@
         <v>43816</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14039,7 +14040,7 @@
         <v>43818</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14101,7 +14102,7 @@
         <v>43818</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14158,7 +14159,7 @@
         <v>43819</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14215,7 +14216,7 @@
         <v>43819</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14272,7 +14273,7 @@
         <v>43822</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14329,7 +14330,7 @@
         <v>43838</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14386,7 +14387,7 @@
         <v>43846</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14443,7 +14444,7 @@
         <v>43854</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14500,7 +14501,7 @@
         <v>43857</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14557,7 +14558,7 @@
         <v>43865</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14614,7 +14615,7 @@
         <v>43868</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14671,7 +14672,7 @@
         <v>43886</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14728,7 +14729,7 @@
         <v>43886</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14785,7 +14786,7 @@
         <v>43888</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14842,7 +14843,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14899,7 +14900,7 @@
         <v>43888</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14956,7 +14957,7 @@
         <v>43889</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15013,7 +15014,7 @@
         <v>43895</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15070,7 +15071,7 @@
         <v>43899</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15127,7 +15128,7 @@
         <v>43899</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15184,7 +15185,7 @@
         <v>43907</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15246,7 +15247,7 @@
         <v>43909</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15303,7 +15304,7 @@
         <v>43912</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15360,7 +15361,7 @@
         <v>43914</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15417,7 +15418,7 @@
         <v>43914</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15474,7 +15475,7 @@
         <v>43919</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15531,7 +15532,7 @@
         <v>43921</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15588,7 +15589,7 @@
         <v>43937</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15645,7 +15646,7 @@
         <v>43945</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15702,7 +15703,7 @@
         <v>43948</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15759,7 +15760,7 @@
         <v>43966</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15816,7 +15817,7 @@
         <v>43969</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15873,7 +15874,7 @@
         <v>43969</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15935,7 +15936,7 @@
         <v>43971</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15992,7 +15993,7 @@
         <v>43976</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16049,7 +16050,7 @@
         <v>43977</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16111,7 +16112,7 @@
         <v>43979</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16168,7 +16169,7 @@
         <v>43986</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16225,7 +16226,7 @@
         <v>43990</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16282,7 +16283,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16339,7 +16340,7 @@
         <v>43990</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16396,7 +16397,7 @@
         <v>43991</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16453,7 +16454,7 @@
         <v>43994</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16515,7 +16516,7 @@
         <v>43997</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16572,7 +16573,7 @@
         <v>43998</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16629,7 +16630,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16691,7 +16692,7 @@
         <v>43998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16753,7 +16754,7 @@
         <v>44006</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16810,7 +16811,7 @@
         <v>44007</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16872,7 +16873,7 @@
         <v>44014</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16929,7 +16930,7 @@
         <v>44018</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16991,7 +16992,7 @@
         <v>44019</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17048,7 +17049,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17105,7 +17106,7 @@
         <v>44021</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17167,7 +17168,7 @@
         <v>44029</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17229,7 +17230,7 @@
         <v>44039</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17286,7 +17287,7 @@
         <v>44060</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17343,7 +17344,7 @@
         <v>44061</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17400,7 +17401,7 @@
         <v>44066</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17457,7 +17458,7 @@
         <v>44067</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17514,7 +17515,7 @@
         <v>44068</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17571,7 +17572,7 @@
         <v>44069</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17628,7 +17629,7 @@
         <v>44077</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17685,7 +17686,7 @@
         <v>44078</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17742,7 +17743,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17799,7 +17800,7 @@
         <v>44090</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17856,7 +17857,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17913,7 +17914,7 @@
         <v>44091</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17970,7 +17971,7 @@
         <v>44095</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18027,7 +18028,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18084,7 +18085,7 @@
         <v>44096</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18146,7 +18147,7 @@
         <v>44098</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18203,7 +18204,7 @@
         <v>44103</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18260,7 +18261,7 @@
         <v>44106</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18322,7 +18323,7 @@
         <v>44110</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18379,7 +18380,7 @@
         <v>44111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18436,7 +18437,7 @@
         <v>44114</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18493,7 +18494,7 @@
         <v>44117</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18555,7 +18556,7 @@
         <v>44125</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18612,7 +18613,7 @@
         <v>44126</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18669,7 +18670,7 @@
         <v>44131</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18726,7 +18727,7 @@
         <v>44141</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18783,7 +18784,7 @@
         <v>44143</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18845,7 +18846,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18902,7 +18903,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18964,7 +18965,7 @@
         <v>44143</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19026,7 +19027,7 @@
         <v>44144</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19083,7 +19084,7 @@
         <v>44147</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19140,7 +19141,7 @@
         <v>44148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19197,7 +19198,7 @@
         <v>44160</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19254,7 +19255,7 @@
         <v>44160</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19311,7 +19312,7 @@
         <v>44161</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19373,7 +19374,7 @@
         <v>44162</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19435,7 +19436,7 @@
         <v>44166</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19492,7 +19493,7 @@
         <v>44166</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19549,7 +19550,7 @@
         <v>44169</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19611,7 +19612,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19673,7 +19674,7 @@
         <v>44169</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19755,7 +19756,7 @@
         <v>44175</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19812,7 +19813,7 @@
         <v>44176</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19874,7 +19875,7 @@
         <v>44179</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19931,7 +19932,7 @@
         <v>44183</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19993,7 +19994,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20055,7 +20056,7 @@
         <v>44183</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20117,7 +20118,7 @@
         <v>44200</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20174,7 +20175,7 @@
         <v>44203</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20231,7 +20232,7 @@
         <v>44218</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20288,7 +20289,7 @@
         <v>44224</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20345,7 +20346,7 @@
         <v>44228</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20402,7 +20403,7 @@
         <v>44241</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20459,7 +20460,7 @@
         <v>44242</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20516,7 +20517,7 @@
         <v>44242</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20573,7 +20574,7 @@
         <v>44256</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20630,7 +20631,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20687,7 +20688,7 @@
         <v>44256</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20744,7 +20745,7 @@
         <v>44263</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20801,7 +20802,7 @@
         <v>44265</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20858,7 +20859,7 @@
         <v>44300</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20915,7 +20916,7 @@
         <v>44308</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20977,7 +20978,7 @@
         <v>44308</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21034,7 +21035,7 @@
         <v>44309</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21096,7 +21097,7 @@
         <v>44314</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21158,7 +21159,7 @@
         <v>44334</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21240,7 +21241,7 @@
         <v>44342</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21297,7 +21298,7 @@
         <v>44348</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21354,7 +21355,7 @@
         <v>44349</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21411,7 +21412,7 @@
         <v>44355</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21468,7 +21469,7 @@
         <v>44357</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21525,7 +21526,7 @@
         <v>44358</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21582,7 +21583,7 @@
         <v>44362</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21639,7 +21640,7 @@
         <v>44362</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21701,7 +21702,7 @@
         <v>44363</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21763,7 +21764,7 @@
         <v>44365</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21820,7 +21821,7 @@
         <v>44368</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21877,7 +21878,7 @@
         <v>44376</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21939,7 +21940,7 @@
         <v>44382</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21996,7 +21997,7 @@
         <v>44383</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22053,7 +22054,7 @@
         <v>44384</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22115,7 +22116,7 @@
         <v>44389</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22172,7 +22173,7 @@
         <v>44397</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22229,7 +22230,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22286,7 +22287,7 @@
         <v>44397</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22343,7 +22344,7 @@
         <v>44398</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22400,7 +22401,7 @@
         <v>44407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22457,7 +22458,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22514,7 +22515,7 @@
         <v>44407</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22571,7 +22572,7 @@
         <v>44409</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22628,7 +22629,7 @@
         <v>44412</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22685,7 +22686,7 @@
         <v>44417</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22742,7 +22743,7 @@
         <v>44418</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22799,7 +22800,7 @@
         <v>44419</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22856,7 +22857,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22913,7 +22914,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22970,7 +22971,7 @@
         <v>44419</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23032,7 +23033,7 @@
         <v>44421</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23089,7 +23090,7 @@
         <v>44424</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23151,7 +23152,7 @@
         <v>44431</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23208,7 +23209,7 @@
         <v>44439</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23265,7 +23266,7 @@
         <v>44447</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23327,7 +23328,7 @@
         <v>44459</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23384,7 +23385,7 @@
         <v>44466</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23441,7 +23442,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23498,7 +23499,7 @@
         <v>44466</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23555,7 +23556,7 @@
         <v>44468</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23612,7 +23613,7 @@
         <v>44470</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23669,7 +23670,7 @@
         <v>44475</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23726,7 +23727,7 @@
         <v>44477</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23788,7 +23789,7 @@
         <v>44491</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23845,7 +23846,7 @@
         <v>44497</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23907,7 +23908,7 @@
         <v>44502</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23969,7 +23970,7 @@
         <v>44509</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24031,7 +24032,7 @@
         <v>44511</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24088,7 +24089,7 @@
         <v>44517</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24145,7 +24146,7 @@
         <v>44529</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24202,7 +24203,7 @@
         <v>44529</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24259,7 +24260,7 @@
         <v>44530</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24316,7 +24317,7 @@
         <v>44532</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24373,7 +24374,7 @@
         <v>44558</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24430,7 +24431,7 @@
         <v>44564</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24487,7 +24488,7 @@
         <v>44564</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24544,7 +24545,7 @@
         <v>44566</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24601,7 +24602,7 @@
         <v>44571</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24658,7 +24659,7 @@
         <v>44581</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24715,7 +24716,7 @@
         <v>44583</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24772,7 +24773,7 @@
         <v>44586</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24829,7 +24830,7 @@
         <v>44636</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24886,7 +24887,7 @@
         <v>44644</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24943,7 +24944,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25000,7 +25001,7 @@
         <v>44644</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25057,7 +25058,7 @@
         <v>44648</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25114,7 +25115,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25171,7 +25172,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25228,7 +25229,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25285,7 +25286,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25342,7 +25343,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25399,7 +25400,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25456,7 +25457,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25513,7 +25514,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25570,7 +25571,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25627,7 +25628,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25684,7 +25685,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25741,7 +25742,7 @@
         <v>44648</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25798,7 +25799,7 @@
         <v>44658</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25855,7 +25856,7 @@
         <v>44658</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25912,7 +25913,7 @@
         <v>44662</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25969,7 +25970,7 @@
         <v>44664</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26031,7 +26032,7 @@
         <v>44680</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26088,7 +26089,7 @@
         <v>44697</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26145,7 +26146,7 @@
         <v>44698</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26207,7 +26208,7 @@
         <v>44698</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26269,7 +26270,7 @@
         <v>44701</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26331,7 +26332,7 @@
         <v>44704</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26393,7 +26394,7 @@
         <v>44714</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26455,7 +26456,7 @@
         <v>44725</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26517,7 +26518,7 @@
         <v>44739</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26574,7 +26575,7 @@
         <v>44742</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26636,7 +26637,7 @@
         <v>44742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26698,7 +26699,7 @@
         <v>44751</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26755,7 +26756,7 @@
         <v>44755</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26812,7 +26813,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26869,7 +26870,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26926,7 +26927,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26983,7 +26984,7 @@
         <v>44755</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27040,7 +27041,7 @@
         <v>44775</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27102,7 +27103,7 @@
         <v>44775</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27159,7 +27160,7 @@
         <v>44789</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27216,7 +27217,7 @@
         <v>44792</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27273,7 +27274,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27330,7 +27331,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27387,7 +27388,7 @@
         <v>44792</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27444,7 +27445,7 @@
         <v>44797</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27501,7 +27502,7 @@
         <v>44798</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27558,7 +27559,7 @@
         <v>44802</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27615,7 +27616,7 @@
         <v>44804</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27677,7 +27678,7 @@
         <v>44806</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27734,7 +27735,7 @@
         <v>44809</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27796,7 +27797,7 @@
         <v>44813</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27853,7 +27854,7 @@
         <v>44824</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27910,7 +27911,7 @@
         <v>44824</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27967,7 +27968,7 @@
         <v>44826</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28024,7 +28025,7 @@
         <v>44827</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28081,7 +28082,7 @@
         <v>44827</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28138,7 +28139,7 @@
         <v>44830</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28200,7 +28201,7 @@
         <v>44830</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28257,7 +28258,7 @@
         <v>44831</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28314,7 +28315,7 @@
         <v>44834</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28371,7 +28372,7 @@
         <v>44851</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28428,7 +28429,7 @@
         <v>44852</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28485,7 +28486,7 @@
         <v>44860</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28542,7 +28543,7 @@
         <v>44860</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28599,7 +28600,7 @@
         <v>44866</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28661,7 +28662,7 @@
         <v>44872</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28718,7 +28719,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28780,7 +28781,7 @@
         <v>44872</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28842,7 +28843,7 @@
         <v>44873</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28899,7 +28900,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28956,7 +28957,7 @@
         <v>44873</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29013,7 +29014,7 @@
         <v>44874</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29070,7 +29071,7 @@
         <v>44880</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29127,7 +29128,7 @@
         <v>44882</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29184,7 +29185,7 @@
         <v>44887</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29241,7 +29242,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29298,7 +29299,7 @@
         <v>44887</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29355,7 +29356,7 @@
         <v>44889</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29412,7 +29413,7 @@
         <v>44893</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29469,7 +29470,7 @@
         <v>44903</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29526,7 +29527,7 @@
         <v>44909</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29583,7 +29584,7 @@
         <v>44909</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29640,7 +29641,7 @@
         <v>44910</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29697,7 +29698,7 @@
         <v>44911</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29754,7 +29755,7 @@
         <v>44916</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29811,7 +29812,7 @@
         <v>44931</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29868,7 +29869,7 @@
         <v>44935</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29925,7 +29926,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29982,7 +29983,7 @@
         <v>44937</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30039,7 +30040,7 @@
         <v>44937</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30096,7 +30097,7 @@
         <v>44945</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30153,7 +30154,7 @@
         <v>44949</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30210,7 +30211,7 @@
         <v>44951</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30267,7 +30268,7 @@
         <v>44960</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30324,7 +30325,7 @@
         <v>44960</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30381,7 +30382,7 @@
         <v>44963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30443,7 +30444,7 @@
         <v>44964</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30500,7 +30501,7 @@
         <v>44965</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30557,7 +30558,7 @@
         <v>44965</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30614,7 +30615,7 @@
         <v>44972</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30671,7 +30672,7 @@
         <v>44973</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30728,7 +30729,7 @@
         <v>44987</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30785,7 +30786,7 @@
         <v>44987</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30842,7 +30843,7 @@
         <v>44988</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30899,7 +30900,7 @@
         <v>44994</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30956,7 +30957,7 @@
         <v>45001</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31013,7 +31014,7 @@
         <v>45009</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31070,7 +31071,7 @@
         <v>45020</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31127,7 +31128,7 @@
         <v>45021</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31184,7 +31185,7 @@
         <v>45027</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31241,7 +31242,7 @@
         <v>45028</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31303,7 +31304,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31360,7 +31361,7 @@
         <v>45028</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31422,7 +31423,7 @@
         <v>45034</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31479,7 +31480,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31536,7 +31537,7 @@
         <v>45034</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31593,7 +31594,7 @@
         <v>45040</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31650,7 +31651,7 @@
         <v>45040</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31707,7 +31708,7 @@
         <v>45042</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31769,7 +31770,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31826,7 +31827,7 @@
         <v>45042</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31883,7 +31884,7 @@
         <v>45049</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31940,7 +31941,7 @@
         <v>45050</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32002,7 +32003,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32064,7 +32065,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32126,7 +32127,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32183,7 +32184,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32245,7 +32246,7 @@
         <v>45050</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32302,7 +32303,7 @@
         <v>45054</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32359,7 +32360,7 @@
         <v>45062</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32416,7 +32417,7 @@
         <v>45062</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32473,7 +32474,7 @@
         <v>45068</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32530,7 +32531,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32592,7 +32593,7 @@
         <v>45068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32649,7 +32650,7 @@
         <v>45069</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32706,7 +32707,7 @@
         <v>45069</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32763,7 +32764,7 @@
         <v>45072</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32820,7 +32821,7 @@
         <v>45072</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32877,7 +32878,7 @@
         <v>45075</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32939,7 +32940,7 @@
         <v>45075</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33001,7 +33002,7 @@
         <v>45076</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33058,7 +33059,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33115,7 +33116,7 @@
         <v>45076</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33172,7 +33173,7 @@
         <v>45077</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33229,7 +33230,7 @@
         <v>45077</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33286,7 +33287,7 @@
         <v>45078</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33343,7 +33344,7 @@
         <v>45090</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33400,7 +33401,7 @@
         <v>45093</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33457,7 +33458,7 @@
         <v>45096</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33514,7 +33515,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33571,7 +33572,7 @@
         <v>45096</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33628,7 +33629,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33685,7 +33686,7 @@
         <v>45097</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33742,7 +33743,7 @@
         <v>45099</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33799,7 +33800,7 @@
         <v>45103</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33856,7 +33857,7 @@
         <v>45103</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33913,7 +33914,7 @@
         <v>45104</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33970,7 +33971,7 @@
         <v>45105</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34027,7 +34028,7 @@
         <v>45107</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34089,7 +34090,7 @@
         <v>45112</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34151,7 +34152,7 @@
         <v>45113</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34208,7 +34209,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34270,7 +34271,7 @@
         <v>45119</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34332,7 +34333,7 @@
         <v>45119</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34394,7 +34395,7 @@
         <v>45134</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34451,7 +34452,7 @@
         <v>45138</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34508,7 +34509,7 @@
         <v>45142</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34570,7 +34571,7 @@
         <v>45142</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34632,7 +34633,7 @@
         <v>45146</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34689,7 +34690,7 @@
         <v>45148</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34751,7 +34752,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34813,7 +34814,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34875,7 +34876,7 @@
         <v>45148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34932,7 +34933,7 @@
         <v>45154</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34989,7 +34990,7 @@
         <v>45159</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35046,7 +35047,7 @@
         <v>45160</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35093,7 +35094,7 @@
       </c>
       <c r="R572" s="2" t="inlineStr"/>
     </row>
-    <row r="573">
+    <row r="573" ht="15" customHeight="1">
       <c r="A573" t="inlineStr">
         <is>
           <t>A 39645-2023</t>
@@ -35103,7 +35104,7 @@
         <v>45167</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35149,6 +35150,63 @@
         <v>0</v>
       </c>
       <c r="R573" s="2" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>A 46200-2023</t>
+        </is>
+      </c>
+      <c r="B574" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C574" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>FALUN</t>
+        </is>
+      </c>
+      <c r="G574" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0</v>
+      </c>
+      <c r="J574" t="n">
+        <v>0</v>
+      </c>
+      <c r="K574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N574" t="n">
+        <v>0</v>
+      </c>
+      <c r="O574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R574" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43501</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>45190</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>45201</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43314</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43321</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43334</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43356</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43360</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43378</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43389</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43389</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43390</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43428</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43433</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43446</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43454</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43468</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43468</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43482</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43488</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43490</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43493</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43494</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43501</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43502</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43507</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43510</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43517</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43525</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43532</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>43532</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43552</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43558</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43558</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>43571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43584</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43591</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43605</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43606</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43612</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43613</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43615</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43619</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43619</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43627</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>43640</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>43641</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43642</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>43642</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43670</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43672</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43672</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43683</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43689</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43690</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43713</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43714</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43720</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43720</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43726</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43727</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>43742</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43742</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43752</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43759</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>43759</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43762</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43766</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43768</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43769</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>43773</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>43773</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43774</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43775</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>43775</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43777</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43780</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43783</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43784</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43796</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43801</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>43815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>43816</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>43818</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43818</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43819</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43819</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43822</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>43838</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43846</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>43854</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>43857</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>43868</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>43886</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43886</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>43888</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>43888</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>43889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>43895</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>43899</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43899</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43912</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43914</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43919</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43921</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43937</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43945</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43948</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43966</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43969</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43969</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43971</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43976</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>43979</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>43986</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>43990</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43990</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43991</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43994</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43997</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43998</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44006</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44007</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44014</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44018</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44021</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>44029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44039</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44060</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44066</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44067</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44068</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44078</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44085</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44091</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44095</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44096</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>44110</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>44114</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44117</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44125</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44126</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44131</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44143</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44143</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44144</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44160</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44160</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44161</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>44162</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44166</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44166</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>44169</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44169</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44175</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44176</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44179</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44183</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>44183</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44200</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44203</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44218</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44224</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44228</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44241</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44242</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44242</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>44256</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>44256</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44263</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44265</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>44300</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>44308</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44308</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44309</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44314</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44334</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44342</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44348</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>44349</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44355</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44357</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44358</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44362</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44362</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44363</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44365</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44368</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44376</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>44382</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>44383</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>44384</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>44389</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>44397</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>44397</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>44398</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44407</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44409</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>44417</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>44418</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>44419</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>44419</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44421</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44424</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44439</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44447</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44466</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44466</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44468</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44470</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44475</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23874,7 +23874,7 @@
         <v>44491</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>44497</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44502</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44509</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44511</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>44517</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>44529</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>44529</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44530</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44532</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44558</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44564</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44564</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44566</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44571</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44581</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>44583</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44586</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>44636</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44644</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44644</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>44648</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>44648</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>44658</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>44658</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>44662</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>44664</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>44680</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>44697</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>44698</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44698</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44701</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44704</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>44714</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>44725</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44739</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>44742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44751</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44755</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44755</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44775</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27188,7 +27188,7 @@
         <v>44775</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>44789</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>44792</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>44792</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>44797</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>44802</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44804</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44806</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44809</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44813</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44824</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44824</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44826</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44827</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44827</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44830</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>44830</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>44831</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>44834</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>44851</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44852</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44860</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>44860</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>44866</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28804,7 +28804,7 @@
         <v>44872</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>44872</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>44873</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44873</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>44874</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>44880</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>44882</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>44887</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>44903</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>44909</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>44909</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>44910</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>44911</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         <v>44916</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>44931</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44937</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44937</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44945</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>44949</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>44951</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>44960</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>44960</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>44963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>44964</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>44965</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30643,7 +30643,7 @@
         <v>44965</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30700,7 +30700,7 @@
         <v>44972</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>44973</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>44987</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>44987</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>44988</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44994</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31042,7 +31042,7 @@
         <v>45001</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31099,7 +31099,7 @@
         <v>45009</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>45020</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>45021</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>45027</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>45028</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>45028</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>45034</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>45034</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>45040</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>45040</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>45042</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>45042</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>45049</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32269,7 +32269,7 @@
         <v>45050</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>45050</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32388,7 +32388,7 @@
         <v>45054</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         <v>45062</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>45062</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>45068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45068</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>45069</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45069</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>45072</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45072</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>45075</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>45075</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>45076</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>45076</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>45077</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>45077</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>45078</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45090</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>45096</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>45096</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>45097</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>45097</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>45099</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>45103</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>45105</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34113,7 +34113,7 @@
         <v>45107</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>45112</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34356,7 +34356,7 @@
         <v>45119</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45119</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34480,7 +34480,7 @@
         <v>45134</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>45138</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34594,7 +34594,7 @@
         <v>45142</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>45142</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34718,7 +34718,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34775,7 +34775,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34837,7 +34837,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>45148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>45148</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>45154</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>45159</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>45160</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>45196</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35303,7 +35303,7 @@
         <v>45202</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43501</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>45190</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>45201</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43314</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43321</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43334</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43356</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43360</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43378</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43389</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43389</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43390</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43428</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43433</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43446</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43454</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43468</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43468</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43482</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43488</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43490</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43493</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43494</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43501</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43502</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43507</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43510</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43517</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43525</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43532</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>43532</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43552</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43558</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43558</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>43571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43584</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43591</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43605</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43606</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43612</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43613</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43615</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43619</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43619</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43627</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>43640</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>43641</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43642</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>43642</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43670</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43672</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43672</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43683</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43689</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43690</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43713</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43714</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43720</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43720</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43726</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43727</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>43742</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43742</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43752</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43759</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>43759</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43762</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43766</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43768</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43769</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>43773</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>43773</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43774</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43775</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>43775</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43777</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43780</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43783</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43784</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43796</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43801</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>43815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>43816</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>43818</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43818</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43819</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43819</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43822</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>43838</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43846</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>43854</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>43857</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>43868</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>43886</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43886</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>43888</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>43888</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>43889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>43895</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>43899</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43899</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43912</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43914</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43919</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43921</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43937</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43945</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43948</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43966</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43969</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43969</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43971</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43976</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>43979</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>43986</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>43990</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43990</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43991</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43994</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43997</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43998</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44006</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44007</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44014</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44018</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44021</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>44029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44039</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44060</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44066</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44067</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44068</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44078</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44085</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44091</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44095</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44096</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>44110</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>44114</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44117</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44125</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44126</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44131</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44143</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44143</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44144</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44160</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44160</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44161</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>44162</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44166</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44166</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>44169</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44169</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44175</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44176</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44179</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44183</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>44183</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44200</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44203</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44218</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44224</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44228</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44241</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44242</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44242</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>44256</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>44256</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44263</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44265</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>44300</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>44308</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44308</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44309</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44314</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44334</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44342</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44348</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>44349</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44355</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44357</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44358</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44362</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44362</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44363</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44365</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44368</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44376</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>44382</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>44383</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>44384</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>44389</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>44397</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>44397</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>44398</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44407</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44409</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>44417</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>44418</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>44419</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>44419</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44421</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44424</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44439</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44447</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44466</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44466</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44468</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44470</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44475</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23874,7 +23874,7 @@
         <v>44491</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>44497</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44502</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44509</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44511</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>44517</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>44529</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>44529</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44530</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44532</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44558</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44564</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44564</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44566</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44571</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44581</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>44583</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44586</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>44636</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44644</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44644</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>44648</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>44648</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>44658</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>44658</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>44662</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>44664</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>44680</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>44697</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>44698</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44698</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44701</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44704</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>44714</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>44725</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44739</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>44742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44751</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44755</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44755</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44775</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27188,7 +27188,7 @@
         <v>44775</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>44789</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>44792</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>44792</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>44797</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>44802</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44804</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44806</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44809</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44813</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44824</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44824</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44826</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44827</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44827</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44830</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>44830</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>44831</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>44834</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>44851</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44852</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44860</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>44860</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>44866</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28804,7 +28804,7 @@
         <v>44872</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>44872</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>44873</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44873</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>44874</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>44880</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>44882</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>44887</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>44903</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>44909</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>44909</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>44910</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>44911</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         <v>44916</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>44931</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44937</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44937</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44945</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>44949</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>44951</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>44960</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>44960</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>44963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>44964</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>44965</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30643,7 +30643,7 @@
         <v>44965</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30700,7 +30700,7 @@
         <v>44972</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>44973</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>44987</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>44987</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>44988</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44994</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31042,7 +31042,7 @@
         <v>45001</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31099,7 +31099,7 @@
         <v>45009</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>45020</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>45021</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>45027</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>45028</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>45028</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>45034</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>45034</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>45040</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>45040</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>45042</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>45042</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>45049</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32269,7 +32269,7 @@
         <v>45050</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>45050</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32388,7 +32388,7 @@
         <v>45054</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         <v>45062</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>45062</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>45068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45068</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>45069</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45069</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>45072</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45072</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>45075</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>45075</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>45076</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>45076</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>45077</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>45077</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>45078</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45090</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>45096</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>45096</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>45097</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>45097</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>45099</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>45103</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>45105</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34113,7 +34113,7 @@
         <v>45107</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>45112</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34356,7 +34356,7 @@
         <v>45119</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45119</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34480,7 +34480,7 @@
         <v>45134</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>45138</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34594,7 +34594,7 @@
         <v>45142</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>45142</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34718,7 +34718,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34775,7 +34775,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34837,7 +34837,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>45148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>45148</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>45154</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>45159</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>45160</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>45196</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35303,7 +35303,7 @@
         <v>45202</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt FALUN.xlsx
+++ b/Översikt FALUN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y576"/>
+  <dimension ref="A1:Y577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43731</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44933</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>44456</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44664</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>44816</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>43482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         <v>43501</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>44606</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45117</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         <v>43612</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1739,7 +1739,7 @@
         <v>44068</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44872</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44924</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>45028</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>44091</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>44110</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44133</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>44923</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>44943</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43543</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         <v>44021</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         <v>44056</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>44112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44257</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>44309</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>45034</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>45037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
         <v>45040</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>45061</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45069</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>45092</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>45190</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         <v>45201</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         <v>43314</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43321</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43333</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43334</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43356</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43360</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43360</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43378</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>43385</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>43389</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43389</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43390</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43392</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43392</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43392</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43404</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>43411</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
         <v>43413</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         <v>43416</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43416</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43419</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43419</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>43419</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         <v>43423</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5645,7 +5645,7 @@
         <v>43425</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>43428</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>43433</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5836,7 +5836,7 @@
         <v>43433</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43446</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6064,7 +6064,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         <v>43451</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43453</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43454</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43468</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43468</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43468</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43475</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43479</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         <v>43481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6862,7 +6862,7 @@
         <v>43482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>43482</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43482</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>43488</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43490</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43493</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43494</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43494</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43501</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43501</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43502</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43507</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43510</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43517</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43521</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43522</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43522</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43525</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43529</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43532</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>43532</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         <v>43536</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         <v>43537</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         <v>43542</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>43543</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>43543</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>43552</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>43558</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>43558</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>43571</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
         <v>43571</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>43571</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43571</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>43571</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         <v>43579</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43584</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43584</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43587</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43591</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43591</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43605</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43605</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>43605</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>43606</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>43606</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>43608</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>43612</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         <v>43612</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43612</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         <v>43612</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         <v>43613</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43615</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43619</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43619</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43627</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43629</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>43634</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>43636</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43636</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>43640</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>43640</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10679,7 +10679,7 @@
         <v>43641</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10736,7 +10736,7 @@
         <v>43641</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         <v>43642</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
         <v>43642</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>43663</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         <v>43668</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         <v>43670</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43672</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43672</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43676</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43683</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43689</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43689</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43689</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43690</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43710</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>43713</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43713</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>43713</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         <v>43714</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43720</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11926,7 +11926,7 @@
         <v>43720</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43726</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12040,7 +12040,7 @@
         <v>43727</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43727</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43742</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>43742</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43742</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>43752</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>43759</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>43759</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>43759</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>43759</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12630,7 +12630,7 @@
         <v>43759</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>43762</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>43766</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>43766</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>43768</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>43769</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>43773</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13054,7 +13054,7 @@
         <v>43773</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13116,7 +13116,7 @@
         <v>43773</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>43773</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         <v>43773</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13297,7 +13297,7 @@
         <v>43773</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>43773</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13421,7 +13421,7 @@
         <v>43774</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>43775</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>43775</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>43777</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>43777</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>43780</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43783</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43784</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>43796</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>43801</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>43815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>43816</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14125,7 +14125,7 @@
         <v>43818</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43818</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43819</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43819</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43822</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>43838</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43846</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>43854</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>43857</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>43865</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>43868</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>43886</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>43886</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>43888</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14928,7 +14928,7 @@
         <v>43888</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14985,7 +14985,7 @@
         <v>43888</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>43889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>43895</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>43899</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43899</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>43907</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43909</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43912</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43914</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43914</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43919</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43921</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43937</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43945</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43948</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43966</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>43969</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>43969</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>43971</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>43976</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>43977</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>43979</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>43986</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>43990</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>43990</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>43990</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>43991</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>43994</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16601,7 +16601,7 @@
         <v>43997</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>43998</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>43998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>43998</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16839,7 +16839,7 @@
         <v>44006</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44007</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>44014</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44018</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44019</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44019</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>44021</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         <v>44029</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44039</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>44060</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17429,7 +17429,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17486,7 +17486,7 @@
         <v>44066</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17543,7 +17543,7 @@
         <v>44067</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>44068</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>44069</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>44077</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>44078</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>44085</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>44090</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>44090</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>44091</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18056,7 +18056,7 @@
         <v>44095</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44095</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>44096</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>44098</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18289,7 +18289,7 @@
         <v>44103</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18346,7 +18346,7 @@
         <v>44106</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>44110</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>44111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>44114</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44117</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>44125</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18698,7 +18698,7 @@
         <v>44126</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>44131</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>44141</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>44143</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18931,7 +18931,7 @@
         <v>44143</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>44143</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>44143</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>44144</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19169,7 +19169,7 @@
         <v>44147</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19283,7 +19283,7 @@
         <v>44160</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19340,7 +19340,7 @@
         <v>44160</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>44161</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         <v>44162</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>44166</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>44166</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>44169</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>44169</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19759,7 +19759,7 @@
         <v>44169</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19841,7 +19841,7 @@
         <v>44175</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19898,7 +19898,7 @@
         <v>44176</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44179</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20017,7 +20017,7 @@
         <v>44183</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44183</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>44183</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20203,7 +20203,7 @@
         <v>44200</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>44203</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>44218</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>44224</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>44228</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>44241</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44242</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44242</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20659,7 +20659,7 @@
         <v>44256</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>44256</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20773,7 +20773,7 @@
         <v>44256</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>44263</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44265</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>44300</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>44308</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44308</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21120,7 +21120,7 @@
         <v>44309</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44314</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44334</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>44342</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44348</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>44349</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>44355</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44357</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44358</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>44362</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>44362</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44363</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21849,7 +21849,7 @@
         <v>44365</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>44368</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>44376</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22025,7 +22025,7 @@
         <v>44382</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
         <v>44383</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22139,7 +22139,7 @@
         <v>44384</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>44389</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>44397</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>44397</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>44397</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>44398</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44407</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>44407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>44409</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44412</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>44417</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>44418</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>44419</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>44419</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>44419</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>44419</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44421</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44424</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44431</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44439</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44447</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44459</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>44466</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44466</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44466</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44468</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         <v>44470</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23755,7 +23755,7 @@
         <v>44475</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>44477</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23874,7 +23874,7 @@
         <v>44491</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>44497</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>44502</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         <v>44509</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24117,7 +24117,7 @@
         <v>44511</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24174,7 +24174,7 @@
         <v>44517</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24231,7 +24231,7 @@
         <v>44529</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24288,7 +24288,7 @@
         <v>44529</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24345,7 +24345,7 @@
         <v>44530</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>44532</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44558</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>44564</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>44564</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24630,7 +24630,7 @@
         <v>44566</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24687,7 +24687,7 @@
         <v>44571</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>44581</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>44583</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>44586</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>44636</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>44644</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>44644</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>44644</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>44648</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44648</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44648</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25314,7 +25314,7 @@
         <v>44648</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25371,7 +25371,7 @@
         <v>44648</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25428,7 +25428,7 @@
         <v>44648</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25485,7 +25485,7 @@
         <v>44648</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25542,7 +25542,7 @@
         <v>44648</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25599,7 +25599,7 @@
         <v>44648</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25656,7 +25656,7 @@
         <v>44648</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25713,7 +25713,7 @@
         <v>44648</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25770,7 +25770,7 @@
         <v>44648</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25827,7 +25827,7 @@
         <v>44648</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>44658</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25941,7 +25941,7 @@
         <v>44658</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>44662</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>44664</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>44680</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>44697</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>44698</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>44698</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44701</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44704</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>44714</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>44725</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44739</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>44742</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44751</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44755</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44755</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44755</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44755</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44755</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27126,7 +27126,7 @@
         <v>44775</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27188,7 +27188,7 @@
         <v>44775</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>44789</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>44792</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>44792</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>44792</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>44792</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>44797</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>44798</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>44802</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44804</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>44806</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>44809</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>44813</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27939,7 +27939,7 @@
         <v>44824</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27996,7 +27996,7 @@
         <v>44824</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         <v>44826</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28110,7 +28110,7 @@
         <v>44827</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28167,7 +28167,7 @@
         <v>44827</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28224,7 +28224,7 @@
         <v>44830</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28286,7 +28286,7 @@
         <v>44830</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28343,7 +28343,7 @@
         <v>44831</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28400,7 +28400,7 @@
         <v>44834</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>44851</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>44852</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>44860</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>44860</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>44866</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         <v>44872</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28804,7 +28804,7 @@
         <v>44872</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         <v>44872</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>44873</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>44873</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44873</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>44874</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>44880</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>44882</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>44887</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>44887</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44887</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>44889</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>44893</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>44903</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>44909</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>44909</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>44910</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29783,7 +29783,7 @@
         <v>44911</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29840,7 +29840,7 @@
         <v>44916</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>44931</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>44935</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>44935</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>44937</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44937</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44945</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>44949</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>44951</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>44960</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>44960</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>44963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>44964</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>44965</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30643,7 +30643,7 @@
         <v>44965</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30700,7 +30700,7 @@
         <v>44972</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30757,7 +30757,7 @@
         <v>44973</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30814,7 +30814,7 @@
         <v>44987</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30871,7 +30871,7 @@
         <v>44987</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30928,7 +30928,7 @@
         <v>44988</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30985,7 +30985,7 @@
         <v>44994</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31042,7 +31042,7 @@
         <v>45001</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31099,7 +31099,7 @@
         <v>45009</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31156,7 +31156,7 @@
         <v>45020</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31213,7 +31213,7 @@
         <v>45021</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31270,7 +31270,7 @@
         <v>45027</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>45028</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>45028</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31446,7 +31446,7 @@
         <v>45028</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>45034</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         <v>45034</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31622,7 +31622,7 @@
         <v>45034</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31679,7 +31679,7 @@
         <v>45040</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31736,7 +31736,7 @@
         <v>45040</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31793,7 +31793,7 @@
         <v>45042</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>45042</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31912,7 +31912,7 @@
         <v>45042</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31969,7 +31969,7 @@
         <v>45049</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32026,7 +32026,7 @@
         <v>45050</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45050</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>45050</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>45050</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32269,7 +32269,7 @@
         <v>45050</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>45050</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32388,7 +32388,7 @@
         <v>45054</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         <v>45062</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32502,7 +32502,7 @@
         <v>45062</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>45068</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>45068</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45068</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32735,7 +32735,7 @@
         <v>45069</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32792,7 +32792,7 @@
         <v>45069</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32849,7 +32849,7 @@
         <v>45072</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32906,7 +32906,7 @@
         <v>45072</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32963,7 +32963,7 @@
         <v>45075</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33025,7 +33025,7 @@
         <v>45075</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>45076</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>45076</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>45076</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33258,7 +33258,7 @@
         <v>45077</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33315,7 +33315,7 @@
         <v>45077</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33372,7 +33372,7 @@
         <v>45078</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33429,7 +33429,7 @@
         <v>45090</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33486,7 +33486,7 @@
         <v>45093</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33543,7 +33543,7 @@
         <v>45096</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33600,7 +33600,7 @@
         <v>45096</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33657,7 +33657,7 @@
         <v>45096</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33714,7 +33714,7 @@
         <v>45097</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33771,7 +33771,7 @@
         <v>45097</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33828,7 +33828,7 @@
         <v>45099</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33885,7 +33885,7 @@
         <v>45103</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33942,7 +33942,7 @@
         <v>45103</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>45104</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34056,7 +34056,7 @@
         <v>45105</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34113,7 +34113,7 @@
         <v>45107</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34175,7 +34175,7 @@
         <v>45112</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34237,7 +34237,7 @@
         <v>45113</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34294,7 +34294,7 @@
         <v>45113</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34356,7 +34356,7 @@
         <v>45119</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45119</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34480,7 +34480,7 @@
         <v>45134</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34537,7 +34537,7 @@
         <v>45138</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34594,7 +34594,7 @@
         <v>45142</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34656,7 +34656,7 @@
         <v>45142</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34718,7 +34718,7 @@
         <v>45146</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34775,7 +34775,7 @@
         <v>45148</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34837,7 +34837,7 @@
         <v>45148</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34899,7 +34899,7 @@
         <v>45148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>45148</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35018,7 +35018,7 @@
         <v>45154</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35075,7 +35075,7 @@
         <v>45159</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35132,7 +35132,7 @@
         <v>45160</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35189,7 +35189,7 @@
         <v>45167</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35246,7 +35246,7 @@
         <v>45196</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
       </c>
       <c r="R575" s="2" t="inlineStr"/>
     </row>
-    <row r="576">
+    <row r="576" ht="15" customHeight="1">
       <c r="A576" t="inlineStr">
         <is>
           <t>A 47352-2023</t>
@@ -35303,7 +35303,7 @@
         <v>45202</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35349,6 +35349,63 @@
         <v>0</v>
       </c>
       <c r="R576" s="2" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>A 48211-2023</t>
+        </is>
+      </c>
+      <c r="B577" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C577" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>FALUN</t>
+        </is>
+      </c>
+      <c r="G577" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0</v>
+      </c>
+      <c r="J577" t="n">
+        <v>0</v>
+      </c>
+      <c r="K577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N577" t="n">
+        <v>0</v>
+      </c>
+      <c r="O577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R577" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
